--- a/数据整理/stocks/A股/创业板/300474-景嘉微.xlsx
+++ b/数据整理/stocks/A股/创业板/300474-景嘉微.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.19</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.69</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6048</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000166</t>
+          <t>008960</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中海信息产业精选混合</t>
+          <t>长信国防军工量化灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.82</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1690</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008960</t>
+          <t>000166</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长信国防军工量化灵活配置混合C</t>
+          <t>中海信息产业精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004423</t>
+          <t>004666</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商研究精选灵活配置混合</t>
+          <t>长城久嘉创新成长灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>86.72</t>
+          <t>17.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0250</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -650,26 +710,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>320022</t>
+          <t>519029</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>诺安研究精选股票</t>
+          <t>华夏稳增混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.00</t>
+          <t>11.56</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7791</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004666</t>
+          <t>000654</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长城久嘉创新成长灵活配置混合</t>
+          <t>华商新锐产业灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>12.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3833</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -706,26 +786,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007872</t>
+          <t>320022</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金信稳健策略灵活配置混合</t>
+          <t>诺安研究精选股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.90</t>
+          <t>10.03</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2156</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -734,25 +824,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000654</t>
+          <t>630011</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华商新锐产业灵活配置混合</t>
+          <t>华商主题精选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>82.80</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -762,26 +862,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519029</t>
+          <t>008961</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏稳增混合</t>
+          <t>华商科技创新混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.74</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -790,25 +900,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>630011</t>
+          <t>004423</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华商主题精选混合</t>
+          <t>华商研究精选灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>88.28</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002256</t>
+          <t>007872</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>金信行业优选灵活配置混合</t>
+          <t>金信稳健策略灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>89.92</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -846,26 +976,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002292</t>
+          <t>690003</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>诺安益鑫灵活配置混合</t>
+          <t>民生加银精选混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>64.57</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>690003</t>
+          <t>002292</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>民生加银精选混合</t>
+          <t>诺安益鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.12</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>64.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008961</t>
+          <t>002863</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华商科技创新混合</t>
+          <t>金信深圳成长灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>85.75</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -930,25 +1090,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002863</t>
+          <t>002256</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>金信深圳成长灵活配置混合</t>
+          <t>金信行业优选灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.42</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300474-景嘉微.xlsx
+++ b/数据整理/stocks/A股/创业板/300474-景嘉微.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2723</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8421</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>61.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300474-景嘉微.xlsx
+++ b/数据整理/stocks/A股/创业板/300474-景嘉微.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1524,4 +1525,1048 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>126.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9246</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>96.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9983</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8061</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0042</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6800</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3732</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2393</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>68.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>68.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300474-景嘉微.xlsx
+++ b/数据整理/stocks/A股/创业板/300474-景嘉微.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2569,4 +2570,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300474-景嘉微.xlsx
+++ b/数据整理/stocks/A股/创业板/300474-景嘉微.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2578,7 +2579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2589,17 +2590,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2609,14 +2630,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.79</v>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>133.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.7222</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2625,14 +2668,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.35</v>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>102.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6469</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2641,14 +2706,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.87</v>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4215</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2657,13 +2744,721 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>46.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5652</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2907</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1883</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160415</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安量化多因子混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.82</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300474-景嘉微.xlsx
+++ b/数据整理/stocks/A股/创业板/300474-景嘉微.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3357,7 +3358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3368,17 +3369,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3388,14 +3409,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.16</v>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9305</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3404,14 +3447,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.79</v>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9302</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3420,14 +3485,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.35</v>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1898</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3436,14 +3523,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.87</v>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -3452,13 +3561,737 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002862</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金信量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.82</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300474-景嘉微.xlsx
+++ b/数据整理/stocks/A股/创业板/300474-景嘉微.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4174,7 +4175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4185,17 +4186,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4205,14 +4226,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.41</v>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1673</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -4221,14 +4264,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.16</v>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2094</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4237,14 +4302,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.79</v>
+          <t>010052</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2011</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4253,14 +4340,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.35</v>
+          <t>004260</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德邦稳盈增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>49.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -4269,14 +4378,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>12</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.87</v>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -4285,13 +4416,601 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.82</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300474-景嘉微.xlsx
+++ b/数据整理/stocks/A股/创业板/300474-景嘉微.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>2.07</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>4.41</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>13.16</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>11.79</v>
+        <v>13.16</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>2.35</v>
+        <v>11.79</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>2.87</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.82</v>
       </c>
     </row>
@@ -600,6 +617,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1301,7 +1450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2117,7 +2266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2895,7 +3044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3939,7 +4088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4337,7 +4486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4849,7 +4998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300474-景嘉微.xlsx
+++ b/数据整理/stocks/A股/创业板/300474-景嘉微.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2.07</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>4.41</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>13.16</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>11.79</v>
+        <v>13.16</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>2.35</v>
+        <v>11.79</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>2.87</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>12</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.82</v>
       </c>
     </row>
@@ -616,7 +633,651 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6048</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1690</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6859</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6656</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010052</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4272</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2998</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2385</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富策略增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004209</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成智惠量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005331</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>益民优势安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -748,7 +1409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1450,7 +2111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2266,7 +2927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3044,7 +3705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4088,7 +4749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4486,7 +5147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4996,174 +5657,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002983</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>长信国防军工量化灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.63</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6048</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008960</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长信国防军工量化灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1690</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000166</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中海信息产业精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.82</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0459</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>